--- a/data/trans_orig/P14B23_2016_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B23_2016_2023-Edad-trans_orig.xlsx
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9113</v>
+        <v>7727</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005673763063510718</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02172657500723053</v>
+        <v>0.01842227214541427</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6312</v>
+        <v>5006</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002528126273988685</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01594821569222132</v>
+        <v>0.01265026647258218</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -784,19 +784,19 @@
         <v>3380</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10615</v>
+        <v>9601</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004146685036889777</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00119942639879343</v>
+        <v>0.001202141370647216</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01302122842625893</v>
+        <v>0.01177702354530557</v>
       </c>
     </row>
     <row r="5">
@@ -813,7 +813,7 @@
         <v>417083</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>410350</v>
+        <v>411736</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>419463</v>
@@ -822,7 +822,7 @@
         <v>0.9943262369364892</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9782734249927695</v>
+        <v>0.9815777278545855</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -834,7 +834,7 @@
         <v>394754</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>389443</v>
+        <v>390749</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>395755</v>
@@ -843,7 +843,7 @@
         <v>0.9974718737260113</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9840517843077778</v>
+        <v>0.9873497335274178</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -855,19 +855,19 @@
         <v>811838</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>804603</v>
+        <v>805617</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>814240</v>
+        <v>814238</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9958533149631102</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9869787715737421</v>
+        <v>0.9882229764546939</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9988005736012066</v>
+        <v>0.9987978586293528</v>
       </c>
     </row>
     <row r="6">
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5802</v>
+        <v>6560</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003258444357617045</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.009825185001706946</v>
+        <v>0.01110925232373058</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -980,19 +980,19 @@
         <v>3228</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9249</v>
+        <v>9601</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005727490558095116</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001574123340772389</v>
+        <v>0.001569201793826693</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0164118479283423</v>
+        <v>0.01703716484638751</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -1001,19 +1001,19 @@
         <v>5152</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1872</v>
+        <v>1911</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11565</v>
+        <v>11435</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.00446413519718766</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001621774862426273</v>
+        <v>0.001656238546610389</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0100215353613809</v>
+        <v>0.009909017344821035</v>
       </c>
     </row>
     <row r="8">
@@ -1030,7 +1030,7 @@
         <v>588572</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>584694</v>
+        <v>583936</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>590496</v>
@@ -1039,7 +1039,7 @@
         <v>0.996741555642383</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9901748149982931</v>
+        <v>0.9888907476762664</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1051,19 +1051,19 @@
         <v>560316</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>554295</v>
+        <v>553943</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>562657</v>
+        <v>562660</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9942725094419049</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9835881520716574</v>
+        <v>0.9829628351536124</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9984258766592277</v>
+        <v>0.9984307982061733</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1141</v>
@@ -1072,19 +1072,19 @@
         <v>1148888</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1142475</v>
+        <v>1142605</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1152168</v>
+        <v>1152129</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9955358648028123</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9899784646386193</v>
+        <v>0.9900909826551789</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9983782251375737</v>
+        <v>0.9983437614533895</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>6295</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2779</v>
+        <v>2479</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14176</v>
+        <v>13017</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009407631293089018</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004152991334320922</v>
+        <v>0.003704873580632444</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02118735193654316</v>
+        <v>0.01945410768438863</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -1197,19 +1197,19 @@
         <v>14529</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8839</v>
+        <v>8598</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23077</v>
+        <v>23599</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02196777241520222</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01336394460131484</v>
+        <v>0.01299923115784573</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03489221200321221</v>
+        <v>0.03568048297313028</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -1218,19 +1218,19 @@
         <v>20824</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13617</v>
+        <v>12610</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31318</v>
+        <v>30780</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01565130760738081</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01023431135322975</v>
+        <v>0.009477392289767319</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02353847270015157</v>
+        <v>0.02313461751850566</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>662802</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>654921</v>
+        <v>656080</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>666318</v>
+        <v>666618</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.990592368706911</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9788126480634566</v>
+        <v>0.9805458923156108</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.995847008665679</v>
+        <v>0.9962951264193672</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>650</v>
@@ -1268,19 +1268,19 @@
         <v>646857</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>638309</v>
+        <v>637787</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>652547</v>
+        <v>652788</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9780322275847978</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9651077879967876</v>
+        <v>0.9643195170268697</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9866360553986852</v>
+        <v>0.9870007688421542</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1282</v>
@@ -1289,19 +1289,19 @@
         <v>1309659</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1299165</v>
+        <v>1299703</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1316866</v>
+        <v>1317873</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9843486923926192</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9764615272998485</v>
+        <v>0.9768653824814943</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9897656886467703</v>
+        <v>0.9905226077102327</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>11403</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6150</v>
+        <v>6115</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20891</v>
+        <v>19767</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01764980196368277</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009518672555682516</v>
+        <v>0.009464941798544639</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03233691547279879</v>
+        <v>0.0305967344961471</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -1414,19 +1414,19 @@
         <v>32483</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22575</v>
+        <v>22595</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>44901</v>
+        <v>45332</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05004554750748946</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03477954460348683</v>
+        <v>0.03481167193553986</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06917637161800427</v>
+        <v>0.06984076761937734</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>41</v>
@@ -1435,19 +1435,19 @@
         <v>43886</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>31664</v>
+        <v>32012</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>58537</v>
+        <v>58420</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03388555334190878</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02444883538378047</v>
+        <v>0.02471697776736938</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0451978357897108</v>
+        <v>0.04510786540011222</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>634645</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>625157</v>
+        <v>626281</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>639898</v>
+        <v>639933</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9823501980363173</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9676630845272013</v>
+        <v>0.9694032655038541</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9904813274443176</v>
+        <v>0.9905350582014554</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>572</v>
@@ -1485,19 +1485,19 @@
         <v>616594</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>604176</v>
+        <v>603745</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>626502</v>
+        <v>626482</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9499544524925105</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9308236283819957</v>
+        <v>0.9301592323806229</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9652204553965131</v>
+        <v>0.9651883280644602</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1143</v>
@@ -1506,19 +1506,19 @@
         <v>1251239</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1236588</v>
+        <v>1236705</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1263461</v>
+        <v>1263113</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9661144466580912</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9548021642102892</v>
+        <v>0.9548921345998881</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9755511646162195</v>
+        <v>0.9752830222326312</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>13541</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7224</v>
+        <v>7061</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23953</v>
+        <v>23020</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02833244953800747</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0151149287449642</v>
+        <v>0.01477396620385376</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05012012304966029</v>
+        <v>0.04816828871840702</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>39</v>
@@ -1631,19 +1631,19 @@
         <v>43929</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31776</v>
+        <v>31896</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>57282</v>
+        <v>58627</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08859021615256632</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06408182928687463</v>
+        <v>0.06432325443958452</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.115518299893974</v>
+        <v>0.1182303781996618</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>51</v>
@@ -1652,19 +1652,19 @@
         <v>57470</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>43029</v>
+        <v>43468</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>74003</v>
+        <v>73835</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0590168293037776</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04418696784084594</v>
+        <v>0.0446374629507747</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07599461171960577</v>
+        <v>0.07582245223782492</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>464377</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>453965</v>
+        <v>454898</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>470694</v>
+        <v>470857</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9716675504619925</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9498798769503399</v>
+        <v>0.9518317112815924</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9848850712550358</v>
+        <v>0.9852260337961463</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>393</v>
@@ -1702,19 +1702,19 @@
         <v>451943</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>438590</v>
+        <v>437245</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>464096</v>
+        <v>463976</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9114097838474337</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8844817001060263</v>
+        <v>0.8817696218003384</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9359181707131254</v>
+        <v>0.9356767455604157</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>805</v>
@@ -1723,19 +1723,19 @@
         <v>916320</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>899787</v>
+        <v>899955</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>930761</v>
+        <v>930322</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9409831706962224</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9240053882803942</v>
+        <v>0.9241775477621751</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9558130321591541</v>
+        <v>0.9553625370492254</v>
       </c>
     </row>
     <row r="18">
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6848</v>
+        <v>6498</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.005717552112660109</v>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02048183529977891</v>
+        <v>0.01943519118181917</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>27</v>
@@ -1848,19 +1848,19 @@
         <v>28104</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19377</v>
+        <v>19148</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>40681</v>
+        <v>39500</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07439641157308792</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05129403531346883</v>
+        <v>0.05068706507352591</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1076898575746401</v>
+        <v>0.1045644324950836</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>29</v>
@@ -1869,19 +1869,19 @@
         <v>30016</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>21350</v>
+        <v>20659</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>41913</v>
+        <v>42793</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04215141659388365</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02998237825733668</v>
+        <v>0.02901186825763858</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0588591555154803</v>
+        <v>0.06009472322773672</v>
       </c>
     </row>
     <row r="20">
@@ -1898,7 +1898,7 @@
         <v>332418</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>327482</v>
+        <v>327832</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>334330</v>
@@ -1907,7 +1907,7 @@
         <v>0.9942824478873399</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9795181647002215</v>
+        <v>0.9805648088181816</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1919,19 +1919,19 @@
         <v>349658</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>337081</v>
+        <v>338262</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>358385</v>
+        <v>358614</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.925603588426912</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.89231014242536</v>
+        <v>0.8954355675049165</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9487059646865312</v>
+        <v>0.9493129349264741</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>650</v>
@@ -1940,19 +1940,19 @@
         <v>682076</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>670179</v>
+        <v>669299</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>690742</v>
+        <v>691433</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9578485834061163</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9411408444845198</v>
+        <v>0.9399052767722639</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9700176217426634</v>
+        <v>0.9709881317423616</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>9052</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4930</v>
+        <v>4971</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15908</v>
+        <v>15759</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03522378527693419</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01918151094661301</v>
+        <v>0.01934311315036057</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06189963648636468</v>
+        <v>0.06132037974510441</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>24</v>
@@ -2065,19 +2065,19 @@
         <v>31689</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>20971</v>
+        <v>20345</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>44489</v>
+        <v>44580</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07918898262288966</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05240486893229186</v>
+        <v>0.0508406476059915</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1111751163073347</v>
+        <v>0.1114041630314258</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>35</v>
@@ -2086,19 +2086,19 @@
         <v>40741</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>28225</v>
+        <v>28295</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>55195</v>
+        <v>55079</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0619955328212149</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04295025328951919</v>
+        <v>0.04305652719759902</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08398992449415135</v>
+        <v>0.08381218857337965</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>247946</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>241090</v>
+        <v>241239</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>252068</v>
+        <v>252027</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9647762147230659</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9381003635136351</v>
+        <v>0.9386796202548955</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.980818489053387</v>
+        <v>0.9806568868496394</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>277</v>
@@ -2136,19 +2136,19 @@
         <v>368480</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>355680</v>
+        <v>355589</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>379198</v>
+        <v>379824</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9208110173771104</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8888248836926654</v>
+        <v>0.888595836968574</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9475951310677082</v>
+        <v>0.9491593523940081</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>568</v>
@@ -2157,19 +2157,19 @@
         <v>616426</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>601972</v>
+        <v>602088</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>628942</v>
+        <v>628872</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9380044671787851</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9160100755058485</v>
+        <v>0.9161878114266203</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9570497467104807</v>
+        <v>0.9569434728024009</v>
       </c>
     </row>
     <row r="24">
@@ -2261,19 +2261,19 @@
         <v>46506</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>33620</v>
+        <v>33852</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>60888</v>
+        <v>60860</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01370095817632108</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.009904635097619702</v>
+        <v>0.0099728982461705</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01793813577392668</v>
+        <v>0.01792978533274283</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>139</v>
@@ -2282,19 +2282,19 @@
         <v>154963</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>129374</v>
+        <v>131752</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>182361</v>
+        <v>179332</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04373091245338123</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03650957297871499</v>
+        <v>0.0371807017936138</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05146248341927408</v>
+        <v>0.05060769278017249</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>185</v>
@@ -2303,19 +2303,19 @@
         <v>201469</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>174723</v>
+        <v>174696</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>230404</v>
+        <v>231745</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02903886460205626</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02518384634110131</v>
+        <v>0.0251798306923334</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03320939766737747</v>
+        <v>0.03340262859577721</v>
       </c>
     </row>
     <row r="26">
@@ -2332,19 +2332,19 @@
         <v>3347844</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3333462</v>
+        <v>3333490</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3360730</v>
+        <v>3360498</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9862990418236789</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9820618642260737</v>
+        <v>0.982070214667257</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9900953649023807</v>
+        <v>0.9900271017538295</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3198</v>
@@ -2353,19 +2353,19 @@
         <v>3388602</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3361204</v>
+        <v>3364233</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3414191</v>
+        <v>3411813</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9562690875466188</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9485375165807258</v>
+        <v>0.9493923072198276</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9634904270212851</v>
+        <v>0.9628192982063862</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6383</v>
@@ -2374,19 +2374,19 @@
         <v>6736446</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6707511</v>
+        <v>6706170</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6763192</v>
+        <v>6763219</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9709611353979437</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9667906023326226</v>
+        <v>0.9665973714042229</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9748161536588987</v>
+        <v>0.9748201693076668</v>
       </c>
     </row>
     <row r="27">
@@ -2721,19 +2721,19 @@
         <v>8600</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2513</v>
+        <v>2682</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22579</v>
+        <v>22289</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02108977148445831</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00616289611545525</v>
+        <v>0.006577649323941415</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05536850380673855</v>
+        <v>0.05465673235463196</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -2742,19 +2742,19 @@
         <v>7804</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2185</v>
+        <v>2161</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19352</v>
+        <v>19736</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02152781454338538</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006027811605279041</v>
+        <v>0.005960569521418742</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05338280380669311</v>
+        <v>0.05444304940774617</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -2763,19 +2763,19 @@
         <v>16404</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7466</v>
+        <v>7528</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32167</v>
+        <v>31155</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02129591820122076</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009692616233484929</v>
+        <v>0.009773290001328309</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04175901742129064</v>
+        <v>0.04044510675519557</v>
       </c>
     </row>
     <row r="5">
@@ -2792,19 +2792,19 @@
         <v>399193</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>385214</v>
+        <v>385504</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>405280</v>
+        <v>405111</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9789102285155419</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9446314961932623</v>
+        <v>0.9453432676453682</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9938371038845447</v>
+        <v>0.9934223506760587</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>203</v>
@@ -2813,19 +2813,19 @@
         <v>354708</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>343160</v>
+        <v>342776</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>360327</v>
+        <v>360351</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9784721854566147</v>
+        <v>0.9784721854566145</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9466171961933065</v>
+        <v>0.9455569505922538</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9939721883947209</v>
+        <v>0.9940394304785813</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>371</v>
@@ -2834,19 +2834,19 @@
         <v>753901</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>738138</v>
+        <v>739150</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>762839</v>
+        <v>762777</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9787040817987793</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9582409825787095</v>
+        <v>0.9595548932448044</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9903073837665151</v>
+        <v>0.9902267099986717</v>
       </c>
     </row>
     <row r="6">
@@ -2938,19 +2938,19 @@
         <v>4051</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1172</v>
+        <v>1000</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11336</v>
+        <v>10595</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008493936562406372</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00245813838779007</v>
+        <v>0.002096852286142206</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02377119231707372</v>
+        <v>0.0222166057476108</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -2959,19 +2959,19 @@
         <v>7260</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2623</v>
+        <v>2846</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16357</v>
+        <v>16308</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01448785455157376</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005234785558813597</v>
+        <v>0.005679410972952134</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03264411105420201</v>
+        <v>0.03254608947244954</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -2980,19 +2980,19 @@
         <v>11310</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4854</v>
+        <v>5035</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>21434</v>
+        <v>21418</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01156503347070516</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004963112425665837</v>
+        <v>0.005148179836608102</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02191670379556208</v>
+        <v>0.02190038971490233</v>
       </c>
     </row>
     <row r="8">
@@ -3009,19 +3009,19 @@
         <v>472839</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>465554</v>
+        <v>466295</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>475718</v>
+        <v>475890</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9915060634375935</v>
+        <v>0.9915060634375937</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9762288076829261</v>
+        <v>0.9777833942523894</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9975418616122099</v>
+        <v>0.9979031477138627</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>455</v>
@@ -3030,19 +3030,19 @@
         <v>493823</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>484726</v>
+        <v>484775</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>498460</v>
+        <v>498237</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9855121454484261</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.967355888945798</v>
+        <v>0.9674539105275505</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9947652144411865</v>
+        <v>0.9943205890270478</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>754</v>
@@ -3051,19 +3051,19 @@
         <v>966663</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>956539</v>
+        <v>956555</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>973119</v>
+        <v>972938</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9884349665292947</v>
+        <v>0.9884349665292949</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9780832962044379</v>
+        <v>0.9780996102850973</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9950368875743342</v>
+        <v>0.9948518201633918</v>
       </c>
     </row>
     <row r="9">
@@ -3155,19 +3155,19 @@
         <v>19722</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10936</v>
+        <v>11231</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33417</v>
+        <v>31358</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03182790767856171</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0176481025644315</v>
+        <v>0.0181243836445648</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05392773626340699</v>
+        <v>0.0506056226618652</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -3176,19 +3176,19 @@
         <v>24604</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17554</v>
+        <v>16915</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33755</v>
+        <v>33349</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03963709890234358</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02828061834677991</v>
+        <v>0.0272506208774134</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05438058076388879</v>
+        <v>0.0537260406097252</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>50</v>
@@ -3197,19 +3197,19 @@
         <v>44326</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>33416</v>
+        <v>32769</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>59868</v>
+        <v>58121</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03573585142885538</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02694020778451096</v>
+        <v>0.02641846952945183</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04826592721164823</v>
+        <v>0.04685750064010143</v>
       </c>
     </row>
     <row r="11">
@@ -3226,19 +3226,19 @@
         <v>599934</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>586239</v>
+        <v>588298</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>608720</v>
+        <v>608425</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9681720923214384</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.946072263736594</v>
+        <v>0.9493943773381351</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9823518974355685</v>
+        <v>0.9818756163554354</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>810</v>
@@ -3247,19 +3247,19 @@
         <v>596116</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>586965</v>
+        <v>587371</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>603166</v>
+        <v>603805</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9603629010976562</v>
+        <v>0.9603629010976564</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9456194192361114</v>
+        <v>0.9462739593902748</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9717193816532201</v>
+        <v>0.9727493791225866</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1339</v>
@@ -3268,19 +3268,19 @@
         <v>1196050</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1180508</v>
+        <v>1182255</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1206960</v>
+        <v>1207607</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9642641485711447</v>
+        <v>0.9642641485711446</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9517340727883516</v>
+        <v>0.9531424993598985</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9730597922154889</v>
+        <v>0.9735815304705482</v>
       </c>
     </row>
     <row r="12">
@@ -3372,19 +3372,19 @@
         <v>31672</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21859</v>
+        <v>22383</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45006</v>
+        <v>45930</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04520595088110028</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03119992071016183</v>
+        <v>0.03194770014589965</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06423763978595746</v>
+        <v>0.06555632673146969</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>70</v>
@@ -3393,19 +3393,19 @@
         <v>46253</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36769</v>
+        <v>35994</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>58585</v>
+        <v>57628</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.06292159835713693</v>
+        <v>0.06292159835713695</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05001996742230074</v>
+        <v>0.04896503698203895</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07969727460053437</v>
+        <v>0.07839524750898985</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>98</v>
@@ -3414,19 +3414,19 @@
         <v>77925</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>63952</v>
+        <v>63378</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>95118</v>
+        <v>94994</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05427649629403685</v>
+        <v>0.05427649629403686</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04454378768794918</v>
+        <v>0.04414379202914653</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06625160391113219</v>
+        <v>0.06616533021183833</v>
       </c>
     </row>
     <row r="14">
@@ -3443,19 +3443,19 @@
         <v>668945</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>655611</v>
+        <v>654687</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>678758</v>
+        <v>678234</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9547940491188999</v>
+        <v>0.9547940491188996</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9357623602140422</v>
+        <v>0.93444367326853</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9688000792898381</v>
+        <v>0.9680522998541</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1068</v>
@@ -3464,19 +3464,19 @@
         <v>688843</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>676511</v>
+        <v>677468</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>698327</v>
+        <v>699102</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.937078401642863</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9203027253994641</v>
+        <v>0.92160475249101</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9499800325776993</v>
+        <v>0.951034963017961</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1705</v>
@@ -3485,19 +3485,19 @@
         <v>1357788</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1340595</v>
+        <v>1340719</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1371761</v>
+        <v>1372335</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.945723503705963</v>
+        <v>0.9457235037059634</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9337483960888678</v>
+        <v>0.9338346697881618</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9554562123120509</v>
+        <v>0.9558562079708534</v>
       </c>
     </row>
     <row r="15">
@@ -3589,19 +3589,19 @@
         <v>27996</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20014</v>
+        <v>19325</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>38743</v>
+        <v>38592</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04613290335986806</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03297913912527674</v>
+        <v>0.0318449066513626</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06384267425662606</v>
+        <v>0.06359332523714251</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>93</v>
@@ -3610,19 +3610,19 @@
         <v>58263</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>48105</v>
+        <v>47717</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>70508</v>
+        <v>70119</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09591501694273315</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07919142991795095</v>
+        <v>0.07855396246795184</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1160717711716771</v>
+        <v>0.1154321347967353</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>124</v>
@@ -3631,19 +3631,19 @@
         <v>86259</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>71633</v>
+        <v>71995</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>101196</v>
+        <v>102447</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07103611956561914</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05899068151347162</v>
+        <v>0.05928952929075708</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08333676348354292</v>
+        <v>0.08436665064172597</v>
       </c>
     </row>
     <row r="17">
@@ -3660,19 +3660,19 @@
         <v>578859</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>568112</v>
+        <v>568263</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>586841</v>
+        <v>587530</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9538670966401321</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9361573257433738</v>
+        <v>0.9364066747628574</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9670208608747232</v>
+        <v>0.968155093348637</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>907</v>
@@ -3681,19 +3681,19 @@
         <v>549185</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>536940</v>
+        <v>537329</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>559343</v>
+        <v>559731</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9040849830572668</v>
+        <v>0.9040849830572666</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8839282288283229</v>
+        <v>0.8845678652032648</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9208085700820491</v>
+        <v>0.9214460375320482</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1536</v>
@@ -3702,19 +3702,19 @@
         <v>1128043</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1113106</v>
+        <v>1111855</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1142669</v>
+        <v>1142307</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9289638804343808</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.916663236516457</v>
+        <v>0.9156333493582742</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9410093184865284</v>
+        <v>0.9407104707092431</v>
       </c>
     </row>
     <row r="18">
@@ -3806,19 +3806,19 @@
         <v>11166</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6583</v>
+        <v>6475</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18101</v>
+        <v>18095</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.02748703080155457</v>
+        <v>0.02748703080155456</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01620518387666914</v>
+        <v>0.01593999070591133</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04455982372799728</v>
+        <v>0.04454530236032222</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>67</v>
@@ -3827,19 +3827,19 @@
         <v>37450</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>30112</v>
+        <v>29666</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>46746</v>
+        <v>46678</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08540893455368198</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0686746300866503</v>
+        <v>0.06765654071716717</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1066104910059769</v>
+        <v>0.1064552034482795</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>83</v>
@@ -3848,19 +3848,19 @@
         <v>48615</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>38379</v>
+        <v>39207</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>58871</v>
+        <v>60377</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.05755426054536588</v>
+        <v>0.05755426054536589</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04543581251661643</v>
+        <v>0.04641578827182383</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06969599984168026</v>
+        <v>0.07147809107195492</v>
       </c>
     </row>
     <row r="20">
@@ -3877,19 +3877,19 @@
         <v>395045</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>388110</v>
+        <v>388116</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>399628</v>
+        <v>399736</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9725129691984454</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9554401762720027</v>
+        <v>0.9554546976396778</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9837948161233308</v>
+        <v>0.9840600092940888</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>759</v>
@@ -3898,19 +3898,19 @@
         <v>401028</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>391732</v>
+        <v>391800</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>408366</v>
+        <v>408812</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9145910654463181</v>
+        <v>0.914591065446318</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8933895089940229</v>
+        <v>0.8935447965517206</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9313253699133497</v>
+        <v>0.9323434592828328</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1312</v>
@@ -3919,19 +3919,19 @@
         <v>796074</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>785818</v>
+        <v>784312</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>806310</v>
+        <v>805482</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9424457394546339</v>
+        <v>0.9424457394546341</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9303040001583198</v>
+        <v>0.9285219089280453</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9545641874833837</v>
+        <v>0.9535842117281762</v>
       </c>
     </row>
     <row r="21">
@@ -4023,19 +4023,19 @@
         <v>14372</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9140</v>
+        <v>8886</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>22870</v>
+        <v>22180</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04644403907660383</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02953630222742106</v>
+        <v>0.02871464605183711</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07390229704421265</v>
+        <v>0.0716731615504964</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>71</v>
@@ -4044,19 +4044,19 @@
         <v>40174</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>31299</v>
+        <v>31786</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>49950</v>
+        <v>50968</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08646836876321405</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06736642948259758</v>
+        <v>0.06841511830333001</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1075093383848878</v>
+        <v>0.1097005100582765</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>91</v>
@@ -4065,19 +4065,19 @@
         <v>54546</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>44216</v>
+        <v>43874</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>66188</v>
+        <v>67504</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07046735911276379</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05712157456317109</v>
+        <v>0.05668036684367721</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08550658555269344</v>
+        <v>0.08720632528704471</v>
       </c>
     </row>
     <row r="23">
@@ -4094,19 +4094,19 @@
         <v>295086</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>286588</v>
+        <v>287278</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>300318</v>
+        <v>300572</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.953555960923396</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9260977029557868</v>
+        <v>0.9283268384495034</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9704636977725791</v>
+        <v>0.9712853539481626</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>810</v>
@@ -4115,19 +4115,19 @@
         <v>424435</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>414659</v>
+        <v>413641</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>433310</v>
+        <v>432823</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9135316312367859</v>
+        <v>0.9135316312367858</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8924906616151121</v>
+        <v>0.8902994899417237</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9326335705174024</v>
+        <v>0.9315848816966701</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1247</v>
@@ -4136,19 +4136,19 @@
         <v>719521</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>707879</v>
+        <v>706563</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>729851</v>
+        <v>730193</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9295326408872361</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9144934144473064</v>
+        <v>0.912793674712955</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.942878425436829</v>
+        <v>0.9433196331563228</v>
       </c>
     </row>
     <row r="24">
@@ -4240,19 +4240,19 @@
         <v>117579</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>96181</v>
+        <v>96303</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>142647</v>
+        <v>140939</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03333238808431482</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02726626269664177</v>
+        <v>0.02730078498706004</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04043864925439259</v>
+        <v>0.03995448698142614</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>344</v>
@@ -4261,19 +4261,19 @@
         <v>221808</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>198819</v>
+        <v>199103</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>246380</v>
+        <v>245619</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05946679866764727</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05330342144651642</v>
+        <v>0.05337959054315472</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06605448280872191</v>
+        <v>0.06585047341076429</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>462</v>
@@ -4282,19 +4282,19 @@
         <v>339387</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>307261</v>
+        <v>307890</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>374714</v>
+        <v>370938</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04676413627209071</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04233742535129774</v>
+        <v>0.04242418755509265</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05163180071213061</v>
+        <v>0.0511115075284987</v>
       </c>
     </row>
     <row r="26">
@@ -4311,19 +4311,19 @@
         <v>3409902</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3384834</v>
+        <v>3386542</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3431300</v>
+        <v>3431178</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9666676119156852</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9595613507456073</v>
+        <v>0.9600455130185739</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9727337373033583</v>
+        <v>0.97269921501294</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5012</v>
@@ -4332,19 +4332,19 @@
         <v>3508137</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3483565</v>
+        <v>3484326</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3531126</v>
+        <v>3530842</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9405332013323529</v>
+        <v>0.9405332013323527</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9339455171912779</v>
+        <v>0.9341495265892348</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9466965785534835</v>
+        <v>0.9466204094568451</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8264</v>
@@ -4353,19 +4353,19 @@
         <v>6918040</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6882713</v>
+        <v>6886489</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6950166</v>
+        <v>6949537</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9532358637279094</v>
+        <v>0.9532358637279091</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9483681992878692</v>
+        <v>0.9488884924715012</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9576625746487021</v>
+        <v>0.9575758124449073</v>
       </c>
     </row>
     <row r="27">
